--- a/trajectory.xlsx
+++ b/trajectory.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="108">
   <si>
     <t>effb0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,14 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LB= 0.33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LB_norm= 0.457</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>spleen</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,14 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LB= 0.37</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LB_norm= 0.51</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>test distribution</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,10 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hubmap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>multi class</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -100,10 +80,6 @@
   </si>
   <si>
     <t>ws 512</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ws 384</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -166,10 +142,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>training not stable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cv0_lb= 0.37</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -273,26 +245,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LB= 0.45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LB_norm= 0.62</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>After Scale Adjust</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>what works</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lareg model</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>large window size</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -325,14 +281,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LB= 0.47</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LB_norm= 0.651</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cv0= 0.754, lb= 0.47, tta_lb= 0.47</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -342,10 +290,6 @@
   </si>
   <si>
     <t>classes aux</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Before Scale Adjust</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -382,18 +326,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">cv0= 0.739, lb= </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hubmap</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hubmap_External</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cv4= 0.754, lb= 0.47</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -402,11 +338,267 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>thr= 0.3, cv_lb= 0.54</t>
+    <t>HPA_thr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HUBMAP_thr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hubmap thr smaller than hpa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hubmap_thr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cv0= 0.739, lb= 0.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dice+bce_loss, positive_sample, classes_balance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HPA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HUBMAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avg_dice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">scale_adjust, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>thr= 0.1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lung type w/o cus_aug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thr= 0.1, cv_lb= 0.56, tta_lb= 0.57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proposal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b0_best_thr0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b7_best_thr0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HUBMAP_largeintestine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TTA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TTA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ws 768</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LB= 0.45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TTA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fill mask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cv0= 0.740, lb= 0.41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cv0= 0.69, lb= 0.39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>scale_adjust,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> domain_shift, thr= 0.1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">scale_adjust, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>domain_shift= 0.5, thr= 0.1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cv0= 0.740, lb= 0.50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>every image have target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img_scale= 4, window_size= 768, heavy_aug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>img_scale= 4,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> window_size= 768, heavy_aug</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LB= 0.50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LB= 0.50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cv0= 0.756, lb= 0.50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cv0= 0.750, lb= 0.53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LB= 0.53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>scale_adjust,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> thr= 0.1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex_dataset kidney</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explore model structure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fix dataset pipeline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TTA*8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cv1= 0.715, lb= 0.53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timm unet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>large model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cv2= 0.698, lb= 0.51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cv3= 0.723, lb= 0.54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postprocess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filter empty pad mask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cv4= 0.704, lb= 0.52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cv_lb= 0.57, tta_lb= 0.58</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -414,7 +606,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -478,15 +670,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF0000CC"/>
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
@@ -608,7 +791,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -638,7 +821,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -667,19 +849,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>486182</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>66924</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>66336</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="圖片 4"/>
+        <xdr:cNvPr id="14" name="圖片 13"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -692,112 +874,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1838325" y="7886700"/>
-          <a:ext cx="2915057" cy="1781424"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100" cap="sq">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="43000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>562383</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>28818</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="圖片 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1295400" y="4086225"/>
-          <a:ext cx="2924583" cy="1743318"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100" cap="sq">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="43000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>590959</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>95528</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="圖片 13"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1314450" y="7105650"/>
-          <a:ext cx="2934109" cy="1991003"/>
+          <a:off x="1295400" y="6076951"/>
+          <a:ext cx="2638425" cy="1790360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -824,13 +902,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>552853</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>209953</xdr:colOff>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>86003</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -841,7 +919,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -874,20 +952,124 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>552855</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>47917</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>42079</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="圖片 15"/>
+        <xdr:cNvPr id="22" name="圖片 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13296900" y="10067925"/>
+          <a:ext cx="3032929" cy="2047875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>225445</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="圖片 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13335000" y="12677775"/>
+          <a:ext cx="3178195" cy="2143125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>528481</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="圖片 24"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -900,8 +1082,1204 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1304925" y="12954000"/>
-          <a:ext cx="2905530" cy="2095792"/>
+          <a:off x="13335001" y="5476876"/>
+          <a:ext cx="2871630" cy="1838324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>537467</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="圖片 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13354051" y="7877176"/>
+          <a:ext cx="2861566" cy="1924050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1162050</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>69625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="圖片 33"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5229225" y="11296650"/>
+          <a:ext cx="3476625" cy="2174650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>191417</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="圖片 34"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9486900" y="11287125"/>
+          <a:ext cx="3162300" cy="2105942"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>171481</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="圖片 35"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9458325" y="13849350"/>
+          <a:ext cx="3343306" cy="2219325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>895351</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>102564</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="圖片 36"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5334001" y="5905500"/>
+          <a:ext cx="3105150" cy="1998039"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1054369</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="圖片 37"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5314951" y="8305801"/>
+          <a:ext cx="3283218" cy="2076450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>506856</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="圖片 38"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9467850" y="5848350"/>
+          <a:ext cx="3059556" cy="1924050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>608397</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="圖片 39"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9458325" y="8248650"/>
+          <a:ext cx="3170622" cy="2066925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9770</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="圖片 44"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1285875" y="657225"/>
+          <a:ext cx="2867425" cy="1752845"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>82826</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>811695</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>17637</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="圖片 45"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5317435" y="463826"/>
+          <a:ext cx="3056282" cy="1939202"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>140805</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>563217</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>181693</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="圖片 46"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9574696" y="463826"/>
+          <a:ext cx="3039717" cy="1904476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>91109</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>74543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>557995</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>165652</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="圖片 47"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13368131" y="472108"/>
+          <a:ext cx="2918538" cy="1880153"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66261</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>91108</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1029931</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>182217</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="圖片 48"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5300870" y="2874065"/>
+          <a:ext cx="3291083" cy="2078935"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>49697</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>116277</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="圖片 49"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9483588" y="2849218"/>
+          <a:ext cx="3296798" cy="2120347"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>99391</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>99392</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>602066</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>33130</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="圖片 50"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13376413" y="2882349"/>
+          <a:ext cx="2954327" cy="1921564"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>107674</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>74544</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1143001</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>111156</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="圖片 56"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5342283" y="16971066"/>
+          <a:ext cx="3362740" cy="2024438"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>173935</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>107675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>24848</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>144229</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="圖片 57"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9607826" y="17004197"/>
+          <a:ext cx="3081131" cy="2024380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>140806</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>74544</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>455544</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>67241</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="圖片 58"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13417828" y="16971066"/>
+          <a:ext cx="3379303" cy="2179305"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>99391</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>188424</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="圖片 59"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13467523" y="19580087"/>
+          <a:ext cx="3445564" cy="2275641"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>107675</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>140804</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1093306</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>24848</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="圖片 60"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5342284" y="19621500"/>
+          <a:ext cx="3313044" cy="2070652"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57979</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>91109</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>224001</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>82827</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="圖片 61"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9491870" y="19571805"/>
+          <a:ext cx="3396240" cy="2178326"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>140804</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>124238</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>396746</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>40408</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="圖片 62"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1366630" y="17020760"/>
+          <a:ext cx="3038899" cy="1705213"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>33130</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>41414</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1151282</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>54721</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="圖片 63"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5267739" y="13757414"/>
+          <a:ext cx="3445565" cy="2199916"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1063,6 +2441,110 @@
         <a:xfrm>
           <a:off x="7305675" y="514350"/>
           <a:ext cx="10517068" cy="5906324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>86845</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>182095</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>23508</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>143995</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="圖片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12502963" y="7040095"/>
+          <a:ext cx="5382721" cy="5407959"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>593912</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>529267</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>185257</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="圖片 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="593912" y="7093324"/>
+          <a:ext cx="10536120" cy="2572109"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1351,278 +2833,653 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R54" sqref="R54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" customWidth="1"/>
+    <col min="24" max="24" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="L2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="O2" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T2" t="s">
+        <v>97</v>
+      </c>
+      <c r="X2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>49</v>
+      </c>
+      <c r="T3" t="s">
+        <v>96</v>
+      </c>
+      <c r="X3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>12</v>
+      </c>
+      <c r="X4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="H5" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="H6" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="H7" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="O7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="H8" s="22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="H9" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="H10" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" t="s">
+        <v>65</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N11" t="s">
+        <v>64</v>
+      </c>
+      <c r="O11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="C12">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12">
+        <v>0.93</v>
+      </c>
+      <c r="O12">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>0.877</v>
+      </c>
+      <c r="C13">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="M13" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="N13">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="O13">
+        <v>0.84499999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="C14">
+        <v>0.875</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="O14">
+        <v>0.90600000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>0.8</v>
+      </c>
+      <c r="C15">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="O15">
+        <v>0.59699999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.151</v>
+      </c>
+      <c r="C16">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="M16" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="N16">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.17599999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="C17">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="M17" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="N17">
+        <v>0.754</v>
+      </c>
+      <c r="O17">
+        <v>0.69199999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="F21" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="M21" t="s">
+        <v>18</v>
+      </c>
+      <c r="R21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="F22" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="M22" t="s">
+        <v>19</v>
+      </c>
+      <c r="R22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="F23" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="M23" t="s">
+        <v>17</v>
+      </c>
+      <c r="R23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="F24" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F25" s="20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M26" t="s">
+        <v>21</v>
+      </c>
+      <c r="R26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="M28" t="s">
+        <v>24</v>
+      </c>
+      <c r="R28" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="R29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="F31" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="M31" t="s">
+        <v>21</v>
+      </c>
+      <c r="R31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M33" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M34" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="R34" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="F35" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="M35" t="s">
+        <v>45</v>
+      </c>
+      <c r="R35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="F36" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="R36" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="F37" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="R37" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="L3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="L4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H5" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="L5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H6" s="23" t="s">
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="F38" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="R38" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="L6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H7" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="L7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="F11" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="M11" t="s">
-        <v>24</v>
-      </c>
-      <c r="R11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="F12" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="M12" t="s">
-        <v>25</v>
-      </c>
-      <c r="R12" t="s">
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="R39" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R40" s="22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R41" s="21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M44" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="R44" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="S44" s="20"/>
+      <c r="T44" s="20"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M45" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="F13" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="M13" t="s">
-        <v>23</v>
-      </c>
-      <c r="R13" t="s">
+      <c r="R45" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="S45" s="20"/>
+      <c r="T45" s="20"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M46" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="F14" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F15" s="20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M16" t="s">
-        <v>27</v>
-      </c>
-      <c r="R16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M18" t="s">
+      <c r="R46" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="R18" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="R19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M21" t="s">
-        <v>27</v>
-      </c>
-      <c r="R21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M23" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M24" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="R24" s="20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M25" t="s">
-        <v>56</v>
-      </c>
-      <c r="R25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="R26" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="R27" s="20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="R28" s="20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="R29" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="R30" s="23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="R31" s="22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="F33" s="3"/>
+      <c r="S46" s="20"/>
+      <c r="T46" s="20"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M47" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="R47" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="S47" s="20"/>
+      <c r="T47" s="20"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M48" t="s">
+        <v>91</v>
+      </c>
+      <c r="R48" s="20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R49" s="20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R50" s="20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R51" s="20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R52" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R53" s="22" t="s">
+        <v>107</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1633,314 +3490,387 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:V62"/>
+  <dimension ref="C2:V104"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="I64" sqref="I64"/>
+    <sheetView topLeftCell="B76" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L78" sqref="L78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
     <row r="3" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C3" s="21" t="s">
-        <v>63</v>
-      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="N3" s="2"/>
     </row>
     <row r="4" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="C5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="N5" s="2"/>
       <c r="P5" s="2"/>
       <c r="V5" s="2"/>
     </row>
     <row r="6" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="I7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="I10" s="1"/>
+    </row>
+    <row r="14" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="H14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D15" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N6">
-        <v>0.61899999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="I7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7">
-        <v>0.11</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N7">
-        <v>0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="8" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="I8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="9" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="I9" s="1" t="s">
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J9">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="10" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="I10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10">
-        <v>0.02</v>
-      </c>
     </row>
     <row r="19" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>20</v>
+      <c r="C19" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="C20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="N20" s="2"/>
       <c r="P20" s="2"/>
       <c r="V20" s="2"/>
     </row>
     <row r="21" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="I21" s="1" t="s">
+      <c r="I21" s="1"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="I22" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="I25" s="1"/>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="N30" s="2"/>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="I31" s="1"/>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="I32" s="1"/>
+      <c r="M32" s="1"/>
+    </row>
+    <row r="33" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="I35" s="1"/>
+    </row>
+    <row r="41" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="H41" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="D42" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C44" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J21">
-        <v>0.06</v>
-      </c>
-      <c r="M21" s="1" t="s">
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C45" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C46" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C47" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N21">
-        <v>0.48799999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="I22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J22">
-        <v>0.1</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N22">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="I23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J23">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="I24" s="1" t="s">
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C56" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="R56" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="K67" s="1"/>
+    </row>
+    <row r="68" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="K68" s="1"/>
+    </row>
+    <row r="69" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="H69" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="R69" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="D70" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G70" s="2"/>
+    </row>
+    <row r="71" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F71" s="1"/>
+    </row>
+    <row r="72" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F72" s="1"/>
+    </row>
+    <row r="73" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C73" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J24">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="I25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C33" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C35" s="2" t="s">
+    </row>
+    <row r="74" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C74" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C75" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C85" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J35" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="I36" s="1" t="s">
+      <c r="H85" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M85" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="R85" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="K96" s="1"/>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="K97" s="1"/>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="H98" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M98" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="R98" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="D99" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G99" s="2"/>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C100" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="1"/>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C101" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N36">
-        <v>0.73199999999999998</v>
-      </c>
-    </row>
-    <row r="37" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="I37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N37">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="38" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="I38" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="I39" s="1" t="s">
+      <c r="F101" s="1"/>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C102" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="I40" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N49" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C50" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N50">
-        <v>0.79500000000000004</v>
-      </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="I51" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N51">
-        <v>0.56499999999999995</v>
-      </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="I52" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="I53" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="I54" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="K61" s="1"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="K62" s="1"/>
+    <row r="103" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C103" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C104" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1948,8 +3878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B21:I46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N86" sqref="N86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1959,10 +3889,10 @@
   <sheetData>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="12" t="s">
         <v>10</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -1974,28 +3904,28 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G23" s="13" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="5"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G24" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="8"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G25" s="14" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="8"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G26" s="14" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="8">
@@ -2004,7 +3934,7 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G27" s="15" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H27" s="9"/>
       <c r="I27" s="10">

--- a/trajectory.xlsx
+++ b/trajectory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="exp" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,8 @@
     <sheet name="effb0_best" sheetId="8" r:id="rId3"/>
     <sheet name="effb7_ds" sheetId="7" r:id="rId4"/>
     <sheet name="effb7_ds_finetune" sheetId="5" r:id="rId5"/>
+    <sheet name="effb7_cls" sheetId="9" r:id="rId6"/>
+    <sheet name="seresnext101" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="166">
   <si>
     <t>effb0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,10 +237,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>channel drop aug</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>class balance</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -476,10 +474,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ex_dataset kidney</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>explore model structure</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -493,10 +487,6 @@
   </si>
   <si>
     <t>cv1= 0.715, lb= 0.53</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>timm unet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -677,6 +667,207 @@
   </si>
   <si>
     <t>cv0= , lb= 0.46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>channel_drop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>custom_aug= 0.5, lung type all train</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">custom_aug= 0.5, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lung type all train</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lung_type_all_train</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exclude lung type from validation lead to stable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cv0= , lb= 0.46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>custom_aug= 0.5, lung type all train</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>custom_aug= 0.5, lung type all train</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unet++, scse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lb= 0.43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cv_prostate= 0.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cv_spleen= 0.86</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lb= 0.46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noisy-student-weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lb= 0.44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cv_prostate= 0.896</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cv_spleen= 0.848</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cv_spleen= 0.863</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cv_prostate= 0.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cv_spleen= 0.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lb= 0.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cv_prostate= 0.882</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cv_spleen= 0.824</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spleen_w/o_cusaug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cv_prostate= 0.897</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cv_spleen= 0.854</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex_dataset kidney</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>copypaste= 0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cv_prostate= 0.90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cv_spleen= 0.861</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lb= 0.44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img_scale= 4, window_size= 768, heavy_aug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spleen w/o cusaug, 2_stage_aug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cv_prostate= 0.91</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cv_spleen= 0.82</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lb= 0.45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cv_prostate= 0.90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cv_spleen= 0.80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex_data_largeintestine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zoom out prostate type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cv_prostate= 0.86</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cv_spleen= 0.85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lung w/o cusaug, spleen w/o cutmix, 2_stage_aug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex_data_kidney</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cv_prostate= 0.87</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cv_spleen= 0.845</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lb= 0.44</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1351,6 +1542,44 @@
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>162969</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>153370</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="圖片 43"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="8801100"/>
+          <a:ext cx="7478169" cy="6954220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2719,6 +2948,172 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>486521</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685801" y="1352550"/>
+          <a:ext cx="6506320" cy="6057900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>111495</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="圖片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="8924924"/>
+          <a:ext cx="6448426" cy="5988421"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>13861</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="1352550"/>
+          <a:ext cx="6124575" cy="5862211"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
@@ -2982,10 +3377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X86"/>
+  <dimension ref="A1:X172"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R87" sqref="R87"/>
+    <sheetView tabSelected="1" topLeftCell="A138" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R173" sqref="R173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2997,7 +3392,7 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>31</v>
@@ -3006,10 +3401,10 @@
         <v>1</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -3017,62 +3412,62 @@
         <v>17</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>82</v>
+        <v>79</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>122</v>
       </c>
       <c r="K2" s="22"/>
       <c r="O2" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" t="s">
         <v>76</v>
       </c>
-      <c r="Q2" t="s">
-        <v>37</v>
-      </c>
-      <c r="T2" t="s">
-        <v>78</v>
-      </c>
       <c r="X2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H3" s="23" t="s">
         <v>32</v>
       </c>
+      <c r="J3" s="22" t="s">
+        <v>158</v>
+      </c>
       <c r="O3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="X3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H4" s="23" t="s">
         <v>33</v>
       </c>
       <c r="O4" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="T4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H5" s="23" t="s">
         <v>34</v>
@@ -3082,8 +3477,11 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>123</v>
+      </c>
       <c r="H6" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O6" t="s">
         <v>27</v>
@@ -3091,7 +3489,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H7" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O7" t="s">
         <v>9</v>
@@ -3099,12 +3497,12 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H8" s="23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H9" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -3114,22 +3512,22 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B11" t="s">
+      <c r="N11" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" t="s">
         <v>53</v>
-      </c>
-      <c r="C11" t="s">
-        <v>54</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="N11" t="s">
-        <v>53</v>
-      </c>
-      <c r="O11" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -3234,7 +3632,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17">
         <v>0.73399999999999999</v>
@@ -3243,7 +3641,7 @@
         <v>0.69299999999999995</v>
       </c>
       <c r="M17" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N17">
         <v>0.754</v>
@@ -3262,13 +3660,13 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
       <c r="F21" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G21" s="20"/>
       <c r="H21" s="20"/>
@@ -3288,7 +3686,7 @@
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
       <c r="F22" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G22" s="20"/>
       <c r="H22" s="20"/>
@@ -3322,7 +3720,7 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
@@ -3336,7 +3734,7 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F25" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
@@ -3357,14 +3755,14 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G28" s="20"/>
       <c r="H28" s="20"/>
@@ -3379,14 +3777,14 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
       <c r="F29" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G29" s="20"/>
       <c r="H29" s="20"/>
@@ -3414,13 +3812,13 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
       <c r="F31" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G31" s="20"/>
       <c r="H31" s="20"/>
@@ -3434,10 +3832,10 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="20" t="s">
         <v>64</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>65</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>20</v>
@@ -3464,39 +3862,39 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
       <c r="D35" s="20"/>
       <c r="F35" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G35" s="20"/>
       <c r="H35" s="20"/>
       <c r="I35" s="20"/>
       <c r="M35" t="s">
+        <v>37</v>
+      </c>
+      <c r="R35" t="s">
         <v>38</v>
-      </c>
-      <c r="R35" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
       <c r="D36" s="20"/>
       <c r="F36" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G36" s="20"/>
       <c r="H36" s="20"/>
       <c r="I36" s="20"/>
       <c r="R36" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
@@ -3513,56 +3911,56 @@
       <c r="H37" s="20"/>
       <c r="I37" s="20"/>
       <c r="R37" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="20"/>
       <c r="D38" s="20"/>
       <c r="F38" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G38" s="20"/>
       <c r="H38" s="20"/>
       <c r="I38" s="20"/>
       <c r="R38" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R39" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="R40" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="R41" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
       <c r="D42" s="20"/>
       <c r="F42" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G42" s="20"/>
       <c r="H42" s="20"/>
@@ -3570,13 +3968,13 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
       <c r="D43" s="20"/>
       <c r="F43" s="20" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G43" s="20"/>
       <c r="H43" s="20"/>
@@ -3596,23 +3994,23 @@
       <c r="H44" s="20"/>
       <c r="I44" s="20"/>
       <c r="M44" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R44" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S44" s="20"/>
       <c r="T44" s="20"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
       <c r="D45" s="20"/>
       <c r="F45" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G45" s="20"/>
       <c r="H45" s="20"/>
@@ -3621,17 +4019,17 @@
         <v>20</v>
       </c>
       <c r="R45" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S45" s="20"/>
       <c r="T45" s="20"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F46" s="24" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>24</v>
@@ -3644,82 +4042,152 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F47" s="20" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M47" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R47" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S47" s="20"/>
       <c r="T47" s="20"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="M48" t="s">
+        <v>72</v>
+      </c>
+      <c r="R48" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="R48" s="20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" spans="13:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="R49" s="20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A50" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="F50" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="R50" s="20" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="13:21" x14ac:dyDescent="0.25">
-      <c r="R50" s="20" t="s">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A51" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="F51" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="R51" s="20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A52" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="F52" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="R52" s="20" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="51" spans="13:21" x14ac:dyDescent="0.25">
-      <c r="R51" s="20" t="s">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A53" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="F53" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="R53" s="23" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="13:21" x14ac:dyDescent="0.25">
-      <c r="R52" s="20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="53" spans="13:21" x14ac:dyDescent="0.25">
-      <c r="R53" s="23" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="54" spans="13:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A54" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="F54" s="20" t="s">
+        <v>137</v>
+      </c>
       <c r="R54" s="23" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="57" spans="13:21" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A55" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="F55" s="20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A56" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="F56" s="20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M57" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N57" s="20"/>
       <c r="O57" s="20"/>
       <c r="R57" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S57" s="20"/>
       <c r="T57" s="20"/>
       <c r="U57" s="20"/>
     </row>
-    <row r="58" spans="13:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M58" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N58" s="20"/>
       <c r="O58" s="20"/>
       <c r="R58" s="20" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="S58" s="20"/>
       <c r="T58" s="20"/>
       <c r="U58" s="20"/>
     </row>
-    <row r="59" spans="13:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M59" s="20" t="s">
         <v>24</v>
       </c>
@@ -3732,40 +4200,40 @@
       <c r="T59" s="20"/>
       <c r="U59" s="20"/>
     </row>
-    <row r="60" spans="13:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M60" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N60" s="20"/>
       <c r="O60" s="20"/>
       <c r="R60" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="S60" s="20"/>
       <c r="T60" s="20"/>
       <c r="U60" s="20"/>
     </row>
-    <row r="61" spans="13:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M61" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R61" s="24" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="62" spans="13:21" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="R62" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="65" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M65" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N65" s="20"/>
       <c r="O65" s="20"/>
       <c r="R65" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S65" s="20"/>
       <c r="T65" s="20"/>
@@ -3773,12 +4241,12 @@
     </row>
     <row r="66" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M66" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N66" s="20"/>
       <c r="O66" s="20"/>
       <c r="R66" s="20" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="S66" s="20"/>
       <c r="T66" s="20"/>
@@ -3799,12 +4267,12 @@
     </row>
     <row r="68" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M68" s="20" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N68" s="20"/>
       <c r="O68" s="20"/>
       <c r="R68" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="S68" s="20"/>
       <c r="T68" s="20"/>
@@ -3812,25 +4280,25 @@
     </row>
     <row r="69" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M69" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R69" s="24" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="70" spans="13:21" x14ac:dyDescent="0.25">
       <c r="R70" s="20" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="73" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M73" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N73" s="20"/>
       <c r="O73" s="20"/>
       <c r="R73" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S73" s="20"/>
       <c r="T73" s="20"/>
@@ -3838,12 +4306,12 @@
     </row>
     <row r="74" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M74" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N74" s="20"/>
       <c r="O74" s="20"/>
       <c r="R74" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S74" s="20"/>
       <c r="T74" s="20"/>
@@ -3864,12 +4332,12 @@
     </row>
     <row r="76" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M76" s="20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="N76" s="20"/>
       <c r="O76" s="20"/>
       <c r="R76" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="S76" s="20"/>
       <c r="T76" s="20"/>
@@ -3877,25 +4345,25 @@
     </row>
     <row r="77" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M77" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R77" s="24" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78" spans="13:21" x14ac:dyDescent="0.25">
       <c r="R78" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="81" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M81" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N81" s="20"/>
       <c r="O81" s="20"/>
       <c r="R81" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S81" s="20"/>
       <c r="T81" s="20"/>
@@ -3903,12 +4371,12 @@
     </row>
     <row r="82" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M82" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N82" s="20"/>
       <c r="O82" s="20"/>
       <c r="R82" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S82" s="20"/>
       <c r="T82" s="20"/>
@@ -3929,12 +4397,12 @@
     </row>
     <row r="84" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M84" s="20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="N84" s="20"/>
       <c r="O84" s="20"/>
       <c r="R84" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="S84" s="20"/>
       <c r="T84" s="20"/>
@@ -3942,18 +4410,751 @@
     </row>
     <row r="85" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M85" s="24" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="R85" s="24" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="86" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M86" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="R86" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="R86" s="20" t="s">
+    </row>
+    <row r="89" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M89" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="N89" s="20"/>
+      <c r="O89" s="20"/>
+      <c r="P89" s="20"/>
+      <c r="R89" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="S89" s="20"/>
+      <c r="T89" s="20"/>
+      <c r="U89" s="20"/>
+    </row>
+    <row r="90" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M90" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="N90" s="20"/>
+      <c r="O90" s="20"/>
+      <c r="P90" s="20"/>
+      <c r="R90" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="S90" s="20"/>
+      <c r="T90" s="20"/>
+      <c r="U90" s="20"/>
+    </row>
+    <row r="91" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M91" s="20" t="s">
         <v>121</v>
+      </c>
+      <c r="N91" s="20"/>
+      <c r="O91" s="20"/>
+      <c r="P91" s="20"/>
+      <c r="R91" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="S91" s="20"/>
+      <c r="T91" s="20"/>
+      <c r="U91" s="20"/>
+    </row>
+    <row r="92" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M92" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="N92" s="20"/>
+      <c r="O92" s="20"/>
+      <c r="P92" s="20"/>
+      <c r="R92" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="S92" s="20"/>
+      <c r="T92" s="20"/>
+      <c r="U92" s="20"/>
+    </row>
+    <row r="93" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M93" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="R93" s="24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="94" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="R94" s="20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="97" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M97" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="N97" s="20"/>
+      <c r="O97" s="20"/>
+      <c r="P97" s="20"/>
+      <c r="R97" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="S97" s="20"/>
+      <c r="T97" s="20"/>
+      <c r="U97" s="20"/>
+    </row>
+    <row r="98" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M98" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="N98" s="20"/>
+      <c r="O98" s="20"/>
+      <c r="P98" s="20"/>
+      <c r="R98" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="S98" s="20"/>
+      <c r="T98" s="20"/>
+      <c r="U98" s="20"/>
+    </row>
+    <row r="99" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M99" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="N99" s="20"/>
+      <c r="O99" s="20"/>
+      <c r="P99" s="20"/>
+      <c r="R99" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="S99" s="20"/>
+      <c r="T99" s="20"/>
+      <c r="U99" s="20"/>
+    </row>
+    <row r="100" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M100" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="N100" s="20"/>
+      <c r="O100" s="20"/>
+      <c r="P100" s="20"/>
+      <c r="R100" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="S100" s="20"/>
+      <c r="T100" s="20"/>
+      <c r="U100" s="20"/>
+    </row>
+    <row r="101" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M101" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="R101" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="102" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="R102" s="20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="105" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M105" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="N105" s="20"/>
+      <c r="O105" s="20"/>
+      <c r="P105" s="20"/>
+      <c r="R105" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="S105" s="20"/>
+      <c r="T105" s="20"/>
+      <c r="U105" s="20"/>
+    </row>
+    <row r="106" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M106" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="N106" s="20"/>
+      <c r="O106" s="20"/>
+      <c r="P106" s="20"/>
+      <c r="R106" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="S106" s="20"/>
+      <c r="T106" s="20"/>
+      <c r="U106" s="20"/>
+    </row>
+    <row r="107" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M107" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="N107" s="20"/>
+      <c r="O107" s="20"/>
+      <c r="P107" s="20"/>
+      <c r="R107" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="S107" s="20"/>
+      <c r="T107" s="20"/>
+      <c r="U107" s="20"/>
+    </row>
+    <row r="108" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M108" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="N108" s="20"/>
+      <c r="O108" s="20"/>
+      <c r="P108" s="20"/>
+      <c r="R108" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="S108" s="20"/>
+      <c r="T108" s="20"/>
+      <c r="U108" s="20"/>
+    </row>
+    <row r="109" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M109" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="R109" s="24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="110" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M110" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="R110" s="20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="111" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M111" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="R111" s="20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="112" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="R112" s="20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="115" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M115" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="N115" s="20"/>
+      <c r="O115" s="20"/>
+      <c r="P115" s="20"/>
+      <c r="R115" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="S115" s="20"/>
+      <c r="T115" s="20"/>
+      <c r="U115" s="20"/>
+    </row>
+    <row r="116" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M116" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="N116" s="20"/>
+      <c r="O116" s="20"/>
+      <c r="P116" s="20"/>
+      <c r="R116" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="S116" s="20"/>
+      <c r="T116" s="20"/>
+      <c r="U116" s="20"/>
+    </row>
+    <row r="117" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M117" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="N117" s="20"/>
+      <c r="O117" s="20"/>
+      <c r="P117" s="20"/>
+      <c r="R117" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="S117" s="20"/>
+      <c r="T117" s="20"/>
+      <c r="U117" s="20"/>
+    </row>
+    <row r="118" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M118" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="N118" s="20"/>
+      <c r="O118" s="20"/>
+      <c r="P118" s="20"/>
+      <c r="R118" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="S118" s="20"/>
+      <c r="T118" s="20"/>
+      <c r="U118" s="20"/>
+    </row>
+    <row r="119" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M119" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="R119" s="24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="120" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M120" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="R120" s="20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="121" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M121" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="R121" s="20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="122" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="R122" s="20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="125" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M125" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="N125" s="20"/>
+      <c r="O125" s="20"/>
+      <c r="P125" s="20"/>
+      <c r="R125" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="S125" s="20"/>
+      <c r="T125" s="20"/>
+      <c r="U125" s="20"/>
+    </row>
+    <row r="126" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M126" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="N126" s="20"/>
+      <c r="O126" s="20"/>
+      <c r="P126" s="20"/>
+      <c r="R126" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="S126" s="20"/>
+      <c r="T126" s="20"/>
+      <c r="U126" s="20"/>
+    </row>
+    <row r="127" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M127" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="N127" s="20"/>
+      <c r="O127" s="20"/>
+      <c r="P127" s="20"/>
+      <c r="R127" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="S127" s="20"/>
+      <c r="T127" s="20"/>
+      <c r="U127" s="20"/>
+    </row>
+    <row r="128" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M128" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="N128" s="20"/>
+      <c r="O128" s="20"/>
+      <c r="P128" s="20"/>
+      <c r="R128" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="S128" s="20"/>
+      <c r="T128" s="20"/>
+      <c r="U128" s="20"/>
+    </row>
+    <row r="129" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M129" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="R129" s="24" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="130" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M130" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="R130" s="20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="131" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M131" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="R131" s="20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="132" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="R132" s="20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="135" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M135" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="N135" s="20"/>
+      <c r="O135" s="20"/>
+      <c r="P135" s="20"/>
+      <c r="R135" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="S135" s="20"/>
+      <c r="T135" s="20"/>
+      <c r="U135" s="20"/>
+    </row>
+    <row r="136" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M136" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="N136" s="20"/>
+      <c r="O136" s="20"/>
+      <c r="P136" s="20"/>
+      <c r="R136" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="S136" s="20"/>
+      <c r="T136" s="20"/>
+      <c r="U136" s="20"/>
+    </row>
+    <row r="137" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M137" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="N137" s="20"/>
+      <c r="O137" s="20"/>
+      <c r="P137" s="20"/>
+      <c r="R137" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="S137" s="20"/>
+      <c r="T137" s="20"/>
+      <c r="U137" s="20"/>
+    </row>
+    <row r="138" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M138" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="N138" s="20"/>
+      <c r="O138" s="20"/>
+      <c r="P138" s="20"/>
+      <c r="R138" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="S138" s="20"/>
+      <c r="T138" s="20"/>
+      <c r="U138" s="20"/>
+    </row>
+    <row r="139" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M139" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="R139" s="24" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="140" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M140" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="R140" s="20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="141" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M141" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="R141" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="142" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="R142" s="20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="145" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M145" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="N145" s="20"/>
+      <c r="O145" s="20"/>
+      <c r="P145" s="20"/>
+      <c r="R145" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="S145" s="20"/>
+      <c r="T145" s="20"/>
+      <c r="U145" s="20"/>
+    </row>
+    <row r="146" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M146" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="N146" s="20"/>
+      <c r="O146" s="20"/>
+      <c r="P146" s="20"/>
+      <c r="R146" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="S146" s="20"/>
+      <c r="T146" s="20"/>
+      <c r="U146" s="20"/>
+    </row>
+    <row r="147" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M147" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="N147" s="20"/>
+      <c r="O147" s="20"/>
+      <c r="P147" s="20"/>
+      <c r="R147" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="S147" s="20"/>
+      <c r="T147" s="20"/>
+      <c r="U147" s="20"/>
+    </row>
+    <row r="148" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M148" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="N148" s="20"/>
+      <c r="O148" s="20"/>
+      <c r="P148" s="20"/>
+      <c r="R148" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="S148" s="20"/>
+      <c r="T148" s="20"/>
+      <c r="U148" s="20"/>
+    </row>
+    <row r="149" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M149" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="R149" s="24" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="150" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M150" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="R150" s="20" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="151" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M151" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="R151" s="20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="152" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="R152" s="20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="155" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M155" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="N155" s="20"/>
+      <c r="O155" s="20"/>
+      <c r="P155" s="20"/>
+      <c r="R155" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="S155" s="20"/>
+      <c r="T155" s="20"/>
+      <c r="U155" s="20"/>
+    </row>
+    <row r="156" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M156" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="N156" s="20"/>
+      <c r="O156" s="20"/>
+      <c r="P156" s="20"/>
+      <c r="R156" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="S156" s="20"/>
+      <c r="T156" s="20"/>
+      <c r="U156" s="20"/>
+    </row>
+    <row r="157" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M157" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="N157" s="20"/>
+      <c r="O157" s="20"/>
+      <c r="P157" s="20"/>
+      <c r="R157" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="S157" s="20"/>
+      <c r="T157" s="20"/>
+      <c r="U157" s="20"/>
+    </row>
+    <row r="158" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M158" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="N158" s="20"/>
+      <c r="O158" s="20"/>
+      <c r="P158" s="20"/>
+      <c r="R158" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="S158" s="20"/>
+      <c r="T158" s="20"/>
+      <c r="U158" s="20"/>
+    </row>
+    <row r="159" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M159" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="R159" s="24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="160" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M160" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="R160" s="20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M161" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="R161" s="20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="R162" s="20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="165" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M165" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="N165" s="20"/>
+      <c r="O165" s="20"/>
+      <c r="P165" s="20"/>
+      <c r="R165" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="S165" s="20"/>
+      <c r="T165" s="20"/>
+      <c r="U165" s="20"/>
+    </row>
+    <row r="166" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M166" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="N166" s="20"/>
+      <c r="O166" s="20"/>
+      <c r="P166" s="20"/>
+      <c r="R166" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="S166" s="20"/>
+      <c r="T166" s="20"/>
+      <c r="U166" s="20"/>
+    </row>
+    <row r="167" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M167" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="N167" s="20"/>
+      <c r="O167" s="20"/>
+      <c r="P167" s="20"/>
+      <c r="R167" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="S167" s="20"/>
+      <c r="T167" s="20"/>
+      <c r="U167" s="20"/>
+    </row>
+    <row r="168" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M168" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="N168" s="20"/>
+      <c r="O168" s="20"/>
+      <c r="P168" s="20"/>
+      <c r="R168" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="S168" s="20"/>
+      <c r="T168" s="20"/>
+      <c r="U168" s="20"/>
+    </row>
+    <row r="169" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M169" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="R169" s="24" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="170" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M170" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="R170" s="20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="171" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M171" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="R171" s="20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="172" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="R172" s="20" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -3967,7 +5168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B21:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
@@ -4076,25 +5277,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:C5"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="P63" sqref="P63"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C4" s="21" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -4109,37 +5310,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AW6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N66" sqref="N66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y6" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="Y6" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="AK6" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AW6" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -4153,59 +5354,134 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:AY47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N83" sqref="N83"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="6" spans="3:51" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="3:51" x14ac:dyDescent="0.25">
       <c r="C7" s="21" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="3:51" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA8" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AA8" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="AM8" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AY8" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="3:51" x14ac:dyDescent="0.25">
       <c r="C46" s="21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="3:51" x14ac:dyDescent="0.25">
       <c r="C47" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA47" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AM47" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="O47" s="1" t="s">
+      <c r="AY47" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AA47" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AM47" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AY47" s="1" t="s">
-        <v>100</v>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:B44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N71" sqref="N71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/trajectory.xlsx
+++ b/trajectory.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="163">
   <si>
     <t>effb0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -241,10 +241,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PL pipeline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cv0= 0.756, lb= 0.45</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -787,10 +783,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ex_dataset kidney</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>copypaste= 0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -836,10 +828,6 @@
   </si>
   <si>
     <t>ex_data_largeintestine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zoom out prostate type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1542,44 +1530,6 @@
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>162969</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>153370</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="圖片 43"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1828800" y="8801100"/>
-          <a:ext cx="7478169" cy="6954220"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3379,8 +3329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R173" sqref="R173"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3392,7 +3342,7 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>31</v>
@@ -3401,10 +3351,10 @@
         <v>1</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -3412,62 +3362,54 @@
         <v>17</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K2" s="22"/>
-      <c r="O2" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
       <c r="T2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="X2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H3" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="22" t="s">
-        <v>158</v>
-      </c>
+      <c r="J3" s="22"/>
       <c r="O3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H4" s="23" t="s">
         <v>33</v>
       </c>
       <c r="O4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H5" s="23" t="s">
         <v>34</v>
@@ -3478,7 +3420,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H6" s="23" t="s">
         <v>35</v>
@@ -3489,7 +3431,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H7" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O7" t="s">
         <v>9</v>
@@ -3497,12 +3439,12 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H8" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H9" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -3512,22 +3454,22 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B11" t="s">
+      <c r="N11" t="s">
+        <v>51</v>
+      </c>
+      <c r="O11" t="s">
         <v>52</v>
-      </c>
-      <c r="C11" t="s">
-        <v>53</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="N11" t="s">
-        <v>52</v>
-      </c>
-      <c r="O11" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -3632,7 +3574,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17">
         <v>0.73399999999999999</v>
@@ -3641,7 +3583,7 @@
         <v>0.69299999999999995</v>
       </c>
       <c r="M17" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N17">
         <v>0.754</v>
@@ -3660,13 +3602,13 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
       <c r="F21" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G21" s="20"/>
       <c r="H21" s="20"/>
@@ -3686,7 +3628,7 @@
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
       <c r="F22" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G22" s="20"/>
       <c r="H22" s="20"/>
@@ -3720,7 +3662,7 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
@@ -3734,7 +3676,7 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F25" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
@@ -3755,14 +3697,14 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G28" s="20"/>
       <c r="H28" s="20"/>
@@ -3777,14 +3719,14 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
       <c r="F29" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G29" s="20"/>
       <c r="H29" s="20"/>
@@ -3812,13 +3754,13 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
       <c r="F31" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G31" s="20"/>
       <c r="H31" s="20"/>
@@ -3832,10 +3774,10 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" s="20" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>64</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>20</v>
@@ -3862,39 +3804,39 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
       <c r="D35" s="20"/>
       <c r="F35" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G35" s="20"/>
       <c r="H35" s="20"/>
       <c r="I35" s="20"/>
       <c r="M35" t="s">
+        <v>36</v>
+      </c>
+      <c r="R35" t="s">
         <v>37</v>
-      </c>
-      <c r="R35" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
       <c r="D36" s="20"/>
       <c r="F36" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G36" s="20"/>
       <c r="H36" s="20"/>
       <c r="I36" s="20"/>
       <c r="R36" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
@@ -3911,56 +3853,56 @@
       <c r="H37" s="20"/>
       <c r="I37" s="20"/>
       <c r="R37" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="20"/>
       <c r="D38" s="20"/>
       <c r="F38" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G38" s="20"/>
       <c r="H38" s="20"/>
       <c r="I38" s="20"/>
       <c r="R38" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R39" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="R40" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="R41" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
       <c r="D42" s="20"/>
       <c r="F42" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G42" s="20"/>
       <c r="H42" s="20"/>
@@ -3968,13 +3910,13 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
       <c r="D43" s="20"/>
       <c r="F43" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G43" s="20"/>
       <c r="H43" s="20"/>
@@ -3994,23 +3936,23 @@
       <c r="H44" s="20"/>
       <c r="I44" s="20"/>
       <c r="M44" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R44" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S44" s="20"/>
       <c r="T44" s="20"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
       <c r="D45" s="20"/>
       <c r="F45" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G45" s="20"/>
       <c r="H45" s="20"/>
@@ -4019,17 +3961,17 @@
         <v>20</v>
       </c>
       <c r="R45" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S45" s="20"/>
       <c r="T45" s="20"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F46" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>24</v>
@@ -4042,133 +3984,133 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F47" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M47" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R47" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S47" s="20"/>
       <c r="T47" s="20"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="M48" t="s">
+        <v>71</v>
+      </c>
+      <c r="R48" s="20" t="s">
         <v>72</v>
-      </c>
-      <c r="R48" s="20" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="R49" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
       <c r="D50" s="20"/>
       <c r="F50" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G50" s="20"/>
       <c r="H50" s="20"/>
       <c r="I50" s="20"/>
       <c r="R50" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
       <c r="D51" s="20"/>
       <c r="F51" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G51" s="20"/>
       <c r="H51" s="20"/>
       <c r="I51" s="20"/>
       <c r="R51" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
       <c r="D52" s="20"/>
       <c r="F52" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G52" s="20"/>
       <c r="H52" s="20"/>
       <c r="I52" s="20"/>
       <c r="R52" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
       <c r="D53" s="20"/>
       <c r="F53" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G53" s="20"/>
       <c r="H53" s="20"/>
       <c r="I53" s="20"/>
       <c r="R53" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="R54" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F55" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F56" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M57" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N57" s="20"/>
       <c r="O57" s="20"/>
       <c r="R57" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S57" s="20"/>
       <c r="T57" s="20"/>
@@ -4176,12 +4118,12 @@
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M58" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N58" s="20"/>
       <c r="O58" s="20"/>
       <c r="R58" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S58" s="20"/>
       <c r="T58" s="20"/>
@@ -4202,12 +4144,12 @@
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M60" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N60" s="20"/>
       <c r="O60" s="20"/>
       <c r="R60" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S60" s="20"/>
       <c r="T60" s="20"/>
@@ -4215,25 +4157,25 @@
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M61" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R61" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="R62" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M65" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N65" s="20"/>
       <c r="O65" s="20"/>
       <c r="R65" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S65" s="20"/>
       <c r="T65" s="20"/>
@@ -4241,12 +4183,12 @@
     </row>
     <row r="66" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M66" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N66" s="20"/>
       <c r="O66" s="20"/>
       <c r="R66" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S66" s="20"/>
       <c r="T66" s="20"/>
@@ -4267,12 +4209,12 @@
     </row>
     <row r="68" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M68" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N68" s="20"/>
       <c r="O68" s="20"/>
       <c r="R68" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S68" s="20"/>
       <c r="T68" s="20"/>
@@ -4280,25 +4222,25 @@
     </row>
     <row r="69" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M69" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R69" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70" spans="13:21" x14ac:dyDescent="0.25">
       <c r="R70" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="73" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M73" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N73" s="20"/>
       <c r="O73" s="20"/>
       <c r="R73" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S73" s="20"/>
       <c r="T73" s="20"/>
@@ -4306,12 +4248,12 @@
     </row>
     <row r="74" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M74" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N74" s="20"/>
       <c r="O74" s="20"/>
       <c r="R74" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S74" s="20"/>
       <c r="T74" s="20"/>
@@ -4332,12 +4274,12 @@
     </row>
     <row r="76" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M76" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N76" s="20"/>
       <c r="O76" s="20"/>
       <c r="R76" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S76" s="20"/>
       <c r="T76" s="20"/>
@@ -4345,25 +4287,25 @@
     </row>
     <row r="77" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M77" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R77" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" spans="13:21" x14ac:dyDescent="0.25">
       <c r="R78" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="81" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M81" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N81" s="20"/>
       <c r="O81" s="20"/>
       <c r="R81" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S81" s="20"/>
       <c r="T81" s="20"/>
@@ -4371,12 +4313,12 @@
     </row>
     <row r="82" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M82" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N82" s="20"/>
       <c r="O82" s="20"/>
       <c r="R82" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S82" s="20"/>
       <c r="T82" s="20"/>
@@ -4397,12 +4339,12 @@
     </row>
     <row r="84" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M84" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N84" s="20"/>
       <c r="O84" s="20"/>
       <c r="R84" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S84" s="20"/>
       <c r="T84" s="20"/>
@@ -4410,29 +4352,29 @@
     </row>
     <row r="85" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M85" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R85" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="86" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M86" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R86" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="89" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M89" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N89" s="20"/>
       <c r="O89" s="20"/>
       <c r="P89" s="20"/>
       <c r="R89" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S89" s="20"/>
       <c r="T89" s="20"/>
@@ -4440,13 +4382,13 @@
     </row>
     <row r="90" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M90" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N90" s="20"/>
       <c r="O90" s="20"/>
       <c r="P90" s="20"/>
       <c r="R90" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S90" s="20"/>
       <c r="T90" s="20"/>
@@ -4454,13 +4396,13 @@
     </row>
     <row r="91" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M91" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N91" s="20"/>
       <c r="O91" s="20"/>
       <c r="P91" s="20"/>
       <c r="R91" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S91" s="20"/>
       <c r="T91" s="20"/>
@@ -4468,13 +4410,13 @@
     </row>
     <row r="92" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M92" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N92" s="20"/>
       <c r="O92" s="20"/>
       <c r="P92" s="20"/>
       <c r="R92" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S92" s="20"/>
       <c r="T92" s="20"/>
@@ -4482,26 +4424,26 @@
     </row>
     <row r="93" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M93" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="R93" s="24" t="s">
         <v>118</v>
-      </c>
-      <c r="R93" s="24" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="94" spans="13:21" x14ac:dyDescent="0.25">
       <c r="R94" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="97" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M97" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N97" s="20"/>
       <c r="O97" s="20"/>
       <c r="P97" s="20"/>
       <c r="R97" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S97" s="20"/>
       <c r="T97" s="20"/>
@@ -4509,13 +4451,13 @@
     </row>
     <row r="98" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M98" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N98" s="20"/>
       <c r="O98" s="20"/>
       <c r="P98" s="20"/>
       <c r="R98" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S98" s="20"/>
       <c r="T98" s="20"/>
@@ -4523,13 +4465,13 @@
     </row>
     <row r="99" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M99" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N99" s="20"/>
       <c r="O99" s="20"/>
       <c r="P99" s="20"/>
       <c r="R99" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S99" s="20"/>
       <c r="T99" s="20"/>
@@ -4537,13 +4479,13 @@
     </row>
     <row r="100" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M100" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N100" s="20"/>
       <c r="O100" s="20"/>
       <c r="P100" s="20"/>
       <c r="R100" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S100" s="20"/>
       <c r="T100" s="20"/>
@@ -4551,26 +4493,26 @@
     </row>
     <row r="101" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M101" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R101" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="102" spans="13:21" x14ac:dyDescent="0.25">
       <c r="R102" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="105" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M105" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N105" s="20"/>
       <c r="O105" s="20"/>
       <c r="P105" s="20"/>
       <c r="R105" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S105" s="20"/>
       <c r="T105" s="20"/>
@@ -4578,13 +4520,13 @@
     </row>
     <row r="106" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M106" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N106" s="20"/>
       <c r="O106" s="20"/>
       <c r="P106" s="20"/>
       <c r="R106" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S106" s="20"/>
       <c r="T106" s="20"/>
@@ -4592,13 +4534,13 @@
     </row>
     <row r="107" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M107" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N107" s="20"/>
       <c r="O107" s="20"/>
       <c r="P107" s="20"/>
       <c r="R107" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S107" s="20"/>
       <c r="T107" s="20"/>
@@ -4606,13 +4548,13 @@
     </row>
     <row r="108" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M108" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N108" s="20"/>
       <c r="O108" s="20"/>
       <c r="P108" s="20"/>
       <c r="R108" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S108" s="20"/>
       <c r="T108" s="20"/>
@@ -4620,42 +4562,42 @@
     </row>
     <row r="109" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M109" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R109" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="110" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M110" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R110" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="111" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M111" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R111" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="112" spans="13:21" x14ac:dyDescent="0.25">
       <c r="R112" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="115" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M115" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N115" s="20"/>
       <c r="O115" s="20"/>
       <c r="P115" s="20"/>
       <c r="R115" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S115" s="20"/>
       <c r="T115" s="20"/>
@@ -4663,13 +4605,13 @@
     </row>
     <row r="116" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M116" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N116" s="20"/>
       <c r="O116" s="20"/>
       <c r="P116" s="20"/>
       <c r="R116" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S116" s="20"/>
       <c r="T116" s="20"/>
@@ -4677,13 +4619,13 @@
     </row>
     <row r="117" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M117" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N117" s="20"/>
       <c r="O117" s="20"/>
       <c r="P117" s="20"/>
       <c r="R117" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S117" s="20"/>
       <c r="T117" s="20"/>
@@ -4691,13 +4633,13 @@
     </row>
     <row r="118" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M118" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N118" s="20"/>
       <c r="O118" s="20"/>
       <c r="P118" s="20"/>
       <c r="R118" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S118" s="20"/>
       <c r="T118" s="20"/>
@@ -4705,42 +4647,42 @@
     </row>
     <row r="119" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M119" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R119" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="120" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M120" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R120" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="121" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M121" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R121" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="122" spans="13:21" x14ac:dyDescent="0.25">
       <c r="R122" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="125" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M125" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N125" s="20"/>
       <c r="O125" s="20"/>
       <c r="P125" s="20"/>
       <c r="R125" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S125" s="20"/>
       <c r="T125" s="20"/>
@@ -4748,13 +4690,13 @@
     </row>
     <row r="126" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M126" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N126" s="20"/>
       <c r="O126" s="20"/>
       <c r="P126" s="20"/>
       <c r="R126" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S126" s="20"/>
       <c r="T126" s="20"/>
@@ -4762,13 +4704,13 @@
     </row>
     <row r="127" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M127" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N127" s="20"/>
       <c r="O127" s="20"/>
       <c r="P127" s="20"/>
       <c r="R127" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S127" s="20"/>
       <c r="T127" s="20"/>
@@ -4776,13 +4718,13 @@
     </row>
     <row r="128" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M128" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N128" s="20"/>
       <c r="O128" s="20"/>
       <c r="P128" s="20"/>
       <c r="R128" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S128" s="20"/>
       <c r="T128" s="20"/>
@@ -4790,42 +4732,42 @@
     </row>
     <row r="129" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M129" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R129" s="24" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="130" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M130" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R130" s="20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="131" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M131" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R131" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="132" spans="13:21" x14ac:dyDescent="0.25">
       <c r="R132" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="135" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M135" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N135" s="20"/>
       <c r="O135" s="20"/>
       <c r="P135" s="20"/>
       <c r="R135" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="S135" s="20"/>
       <c r="T135" s="20"/>
@@ -4833,13 +4775,13 @@
     </row>
     <row r="136" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M136" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N136" s="20"/>
       <c r="O136" s="20"/>
       <c r="P136" s="20"/>
       <c r="R136" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S136" s="20"/>
       <c r="T136" s="20"/>
@@ -4847,13 +4789,13 @@
     </row>
     <row r="137" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M137" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N137" s="20"/>
       <c r="O137" s="20"/>
       <c r="P137" s="20"/>
       <c r="R137" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="S137" s="20"/>
       <c r="T137" s="20"/>
@@ -4861,13 +4803,13 @@
     </row>
     <row r="138" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M138" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N138" s="20"/>
       <c r="O138" s="20"/>
       <c r="P138" s="20"/>
       <c r="R138" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S138" s="20"/>
       <c r="T138" s="20"/>
@@ -4875,42 +4817,42 @@
     </row>
     <row r="139" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M139" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R139" s="24" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="140" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M140" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R140" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="141" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M141" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R141" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="142" spans="13:21" x14ac:dyDescent="0.25">
       <c r="R142" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="145" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M145" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N145" s="20"/>
       <c r="O145" s="20"/>
       <c r="P145" s="20"/>
       <c r="R145" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S145" s="20"/>
       <c r="T145" s="20"/>
@@ -4918,13 +4860,13 @@
     </row>
     <row r="146" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M146" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N146" s="20"/>
       <c r="O146" s="20"/>
       <c r="P146" s="20"/>
       <c r="R146" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S146" s="20"/>
       <c r="T146" s="20"/>
@@ -4932,13 +4874,13 @@
     </row>
     <row r="147" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M147" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N147" s="20"/>
       <c r="O147" s="20"/>
       <c r="P147" s="20"/>
       <c r="R147" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="S147" s="20"/>
       <c r="T147" s="20"/>
@@ -4946,13 +4888,13 @@
     </row>
     <row r="148" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M148" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N148" s="20"/>
       <c r="O148" s="20"/>
       <c r="P148" s="20"/>
       <c r="R148" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S148" s="20"/>
       <c r="T148" s="20"/>
@@ -4960,42 +4902,42 @@
     </row>
     <row r="149" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M149" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R149" s="24" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="150" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M150" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R150" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="151" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M151" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R151" s="20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="152" spans="13:21" x14ac:dyDescent="0.25">
       <c r="R152" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="155" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M155" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N155" s="20"/>
       <c r="O155" s="20"/>
       <c r="P155" s="20"/>
       <c r="R155" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S155" s="20"/>
       <c r="T155" s="20"/>
@@ -5003,13 +4945,13 @@
     </row>
     <row r="156" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M156" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N156" s="20"/>
       <c r="O156" s="20"/>
       <c r="P156" s="20"/>
       <c r="R156" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S156" s="20"/>
       <c r="T156" s="20"/>
@@ -5017,13 +4959,13 @@
     </row>
     <row r="157" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M157" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N157" s="20"/>
       <c r="O157" s="20"/>
       <c r="P157" s="20"/>
       <c r="R157" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="S157" s="20"/>
       <c r="T157" s="20"/>
@@ -5031,13 +4973,13 @@
     </row>
     <row r="158" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M158" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N158" s="20"/>
       <c r="O158" s="20"/>
       <c r="P158" s="20"/>
       <c r="R158" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S158" s="20"/>
       <c r="T158" s="20"/>
@@ -5045,42 +4987,42 @@
     </row>
     <row r="159" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M159" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R159" s="24" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="160" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M160" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R160" s="20" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="161" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M161" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R161" s="20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="162" spans="13:21" x14ac:dyDescent="0.25">
       <c r="R162" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="165" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M165" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N165" s="20"/>
       <c r="O165" s="20"/>
       <c r="P165" s="20"/>
       <c r="R165" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S165" s="20"/>
       <c r="T165" s="20"/>
@@ -5088,13 +5030,13 @@
     </row>
     <row r="166" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M166" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N166" s="20"/>
       <c r="O166" s="20"/>
       <c r="P166" s="20"/>
       <c r="R166" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S166" s="20"/>
       <c r="T166" s="20"/>
@@ -5102,13 +5044,13 @@
     </row>
     <row r="167" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M167" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N167" s="20"/>
       <c r="O167" s="20"/>
       <c r="P167" s="20"/>
       <c r="R167" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="S167" s="20"/>
       <c r="T167" s="20"/>
@@ -5116,13 +5058,13 @@
     </row>
     <row r="168" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M168" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N168" s="20"/>
       <c r="O168" s="20"/>
       <c r="P168" s="20"/>
       <c r="R168" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S168" s="20"/>
       <c r="T168" s="20"/>
@@ -5130,31 +5072,31 @@
     </row>
     <row r="169" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M169" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R169" s="24" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="170" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M170" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R170" s="20" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="171" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M171" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R171" s="20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="172" spans="13:21" x14ac:dyDescent="0.25">
       <c r="R172" s="20" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -5277,25 +5219,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:C5"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C4" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -5310,7 +5252,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AW6"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N66" sqref="N66"/>
     </sheetView>
   </sheetViews>
@@ -5318,29 +5260,29 @@
   <sheetData>
     <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="Y6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK6" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AK6" s="1" t="s">
+      <c r="AW6" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="AW6" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -5362,51 +5304,51 @@
   <sheetData>
     <row r="6" spans="3:51" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="3:51" x14ac:dyDescent="0.25">
       <c r="C7" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="3:51" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="O8" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="AA8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM8" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AM8" s="1" t="s">
+      <c r="AY8" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="AY8" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="46" spans="3:51" x14ac:dyDescent="0.25">
       <c r="C46" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="3:51" x14ac:dyDescent="0.25">
       <c r="C47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O47" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="O47" s="1" t="s">
+      <c r="AA47" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AA47" s="1" t="s">
+      <c r="AM47" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AM47" s="1" t="s">
+      <c r="AY47" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="AY47" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -5428,27 +5370,27 @@
   <sheetData>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -5471,17 +5413,17 @@
   <sheetData>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
